--- a/docs/celltype/markers.xlsx
+++ b/docs/celltype/markers.xlsx
@@ -5,14 +5,14 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="level_1" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="level_2" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="cellcycle" sheetId="3" state="visible" r:id="rId4"/>
-    <sheet name="ref_A" sheetId="4" state="visible" r:id="rId5"/>
-    <sheet name="level_3" sheetId="5" state="visible" r:id="rId6"/>
+    <sheet name="level_3" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="cellcycle" sheetId="4" state="visible" r:id="rId5"/>
+    <sheet name="ref_A" sheetId="5" state="visible" r:id="rId6"/>
     <sheet name="other" sheetId="6" state="visible" r:id="rId7"/>
     <sheet name="references" sheetId="7" state="visible" r:id="rId8"/>
   </sheets>
@@ -265,6 +265,267 @@
     <t xml:space="preserve">CALD1</t>
   </si>
   <si>
+    <t xml:space="preserve">CD4 T naive</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CD7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TRAC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CD40LG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SELL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CD4 T M/E</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IFNG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CD84</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CD8 T naive</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CD8 T M/E</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Treg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FOXP3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IL1R1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gdT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TRDC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TRDV1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TRGV2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TRDV2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SLC4A10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NKG7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KLRF1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CD244</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CD79B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NCKAP5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PKIB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NAAA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CD226</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CD80</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CD1E</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CD1A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CD86</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CLEC10A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SCT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SHD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PTGDS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NRP2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ADAM12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NRG1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CYP1B1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CCR2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MRC1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSF1R</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CD14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ITGAX</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MMP8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HBD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HBM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HEMGN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EPCAM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EGFR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CDH1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ADH7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WFDC2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CLDN4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IRX3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DCN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">THY1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">could be smooth muscle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Megakaryocyte</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PPBP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PF4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CLEC1B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ITGA2B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ITGB3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SELP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ALOX12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PTCRA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GNG11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Platelet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GP1BA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Endothelia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EDAR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MYH11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TEK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NRCAM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MYLK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VEGFC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Neurons</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CALB2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PCLO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TBX18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SEMA3D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WT1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GAD1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GAD2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GABRA1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GABBR2</t>
+  </si>
+  <si>
     <t xml:space="preserve">MCM5</t>
   </si>
   <si>
@@ -740,267 +1001,6 @@
   </si>
   <si>
     <t xml:space="preserve">TPSB2, TPSAB1, KIT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CD4 T naive</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CD7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TRAC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CD40LG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SELL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CD4 T M/E</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IFNG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CD84</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CD8 T naive</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CD8 T M/E</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Treg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FOXP3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IL1R1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">gdT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TRDC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TRDV1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TRGV2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TRDV2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SLC4A10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NKG7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KLRF1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CD244</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CD79B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NCKAP5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PKIB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NAAA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CD226</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CD80</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CD1E</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CD1A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CD86</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CLEC10A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SCT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SHD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PTGDS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NRP2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ADAM12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NRG1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CYP1B1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CCR2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MRC1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CSF1R</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CD14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ITGAX</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MMP8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HBD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HBM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HEMGN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EPCAM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EGFR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CDH1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ADH7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">WFDC2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CLDN4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IRX3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DCN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">THY1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">could be smooth muscle</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Megakaryocyte</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PPBP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PF4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CLEC1B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ITGA2B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ITGB3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SELP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ALOX12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PTCRA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GNG11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Platelet</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GP1BA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Endothelia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EDAR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MYH11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TEK</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NRCAM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MYLK</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VEGFC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Neurons</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CALB2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PCLO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TBX18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SEMA3D</t>
-  </si>
-  <si>
-    <t xml:space="preserve">WT1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GAD1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GAD2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GABRA1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GABBR2</t>
   </si>
   <si>
     <t xml:space="preserve">Something</t>
@@ -1424,11 +1424,11 @@
   </sheetPr>
   <dimension ref="A1:B1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.31640625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.69140625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -1729,22 +1729,22 @@
       <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.70703125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.05859375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="12.82"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="11.77"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="21.53"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="11.77"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="11.47"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="14.02"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="10.93"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="10.48"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="9" style="1" width="17.7"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="37.98"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="12" style="1" width="8.48"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="15.31"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="1" width="4.24"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="16" style="1" width="8.48"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="13.31"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="12.2"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="22.34"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="12.2"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="11.89"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="14.55"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="11.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="10.88"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="9" style="1" width="18.37"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="39.41"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="12" style="1" width="8.79"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="15.88"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="1" width="4.41"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="16" style="1" width="8.79"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2302,798 +2302,1281 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A2:B99"/>
+  <dimension ref="A1:C215"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.84375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.45703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="13.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="9.84"/>
+  </cols>
   <sheetData>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
+        <v>79</v>
+      </c>
       <c r="B2" s="0" t="s">
-        <v>1</v>
+        <v>80</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+      <c r="A3" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="B3" s="0" t="s">
-        <v>80</v>
+      <c r="B3" s="1" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+      <c r="A4" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="B4" s="0" t="s">
-        <v>80</v>
-      </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+      <c r="A5" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B5" s="0" t="s">
         <v>82</v>
       </c>
-      <c r="B5" s="0" t="s">
-        <v>80</v>
-      </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
+      <c r="A6" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B8" s="0" t="s">
         <v>83</v>
       </c>
-      <c r="B6" s="0" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="s">
         <v>84</v>
-      </c>
-      <c r="B7" s="0" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
-        <v>85</v>
-      </c>
-      <c r="B8" s="0" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
-        <v>86</v>
       </c>
       <c r="B9" s="0" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
+      <c r="A10" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B16" s="0" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="1" t="s">
         <v>87</v>
-      </c>
-      <c r="B10" s="0" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
-        <v>88</v>
-      </c>
-      <c r="B11" s="0" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
-        <v>89</v>
-      </c>
-      <c r="B12" s="0" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="s">
-        <v>90</v>
-      </c>
-      <c r="B13" s="0" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="s">
-        <v>91</v>
-      </c>
-      <c r="B14" s="0" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="s">
-        <v>92</v>
-      </c>
-      <c r="B15" s="0" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="s">
-        <v>93</v>
-      </c>
-      <c r="B16" s="0" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="s">
-        <v>94</v>
       </c>
       <c r="B17" s="0" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="s">
-        <v>95</v>
-      </c>
-      <c r="B18" s="0" t="s">
-        <v>80</v>
+      <c r="A18" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="s">
-        <v>96</v>
-      </c>
-      <c r="B19" s="0" t="s">
-        <v>80</v>
+      <c r="A19" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="B20" s="0" t="s">
-        <v>80</v>
+      <c r="A20" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0" t="s">
-        <v>98</v>
-      </c>
-      <c r="B21" s="0" t="s">
-        <v>80</v>
+      <c r="A21" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="0" t="s">
-        <v>99</v>
+      <c r="A22" s="1" t="s">
+        <v>87</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>80</v>
+        <v>43</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="0" t="s">
-        <v>100</v>
+      <c r="A23" s="1" t="s">
+        <v>87</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="0" t="s">
-        <v>101</v>
+      <c r="A24" s="1" t="s">
+        <v>88</v>
       </c>
       <c r="B24" s="0" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="0" t="s">
-        <v>102</v>
-      </c>
-      <c r="B25" s="0" t="s">
-        <v>80</v>
+      <c r="A25" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="0" t="s">
-        <v>103</v>
-      </c>
-      <c r="B26" s="0" t="s">
-        <v>80</v>
+      <c r="A26" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="0" t="s">
-        <v>104</v>
-      </c>
-      <c r="B27" s="0" t="s">
-        <v>80</v>
+      <c r="A27" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="0" t="s">
-        <v>105</v>
-      </c>
-      <c r="B28" s="0" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="0" t="s">
-        <v>106</v>
+      <c r="A28" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="1" t="s">
+        <v>88</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="0" t="s">
-        <v>107</v>
+        <v>43</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="1" t="s">
+        <v>88</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="0" t="s">
-        <v>108</v>
+        <v>85</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="1" t="s">
+        <v>88</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="0" t="s">
-        <v>109</v>
+        <v>86</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="1" t="s">
+        <v>89</v>
       </c>
       <c r="B32" s="0" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="0" t="s">
-        <v>110</v>
+      <c r="C32" s="1"/>
+    </row>
+    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="1" t="s">
+        <v>89</v>
       </c>
       <c r="B33" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="C33" s="1"/>
+    </row>
+    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B34" s="0" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B35" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="C35" s="1"/>
+    </row>
+    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C36" s="1"/>
+    </row>
+    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B37" s="1" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="0" t="s">
-        <v>111</v>
-      </c>
-      <c r="B34" s="0" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="0" t="s">
-        <v>112</v>
-      </c>
-      <c r="B35" s="0" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="0" t="s">
-        <v>113</v>
-      </c>
-      <c r="B36" s="0" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="0" t="s">
-        <v>114</v>
-      </c>
-      <c r="B37" s="0" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="0" t="s">
-        <v>115</v>
-      </c>
-      <c r="B38" s="0" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="0" t="s">
-        <v>116</v>
+      <c r="C37" s="1"/>
+    </row>
+    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C38" s="1"/>
+    </row>
+    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="1" t="s">
+        <v>92</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="0" t="s">
-        <v>117</v>
-      </c>
-      <c r="B40" s="0" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="0" t="s">
-        <v>118</v>
+        <v>93</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="1" t="s">
+        <v>92</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="0" t="s">
-        <v>119</v>
+        <v>95</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="1" t="s">
+        <v>92</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="0" t="s">
-        <v>120</v>
+        <v>96</v>
+      </c>
+      <c r="C42" s="1"/>
+    </row>
+    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="1" t="s">
+        <v>92</v>
       </c>
       <c r="B43" s="0" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>97</v>
+      </c>
+      <c r="C43" s="1"/>
+    </row>
+    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>121</v>
+        <v>42</v>
       </c>
       <c r="B44" s="0" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C44" s="1"/>
+    </row>
+    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="B45" s="0" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="B46" s="0" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="B47" s="0" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="B48" s="0" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="B49" s="0" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="B57" s="0" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="B58" s="0" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="B59" s="0" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="B60" s="0" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="B61" s="0" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="B62" s="0" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B65" s="0" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B66" s="0" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B67" s="0" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B68" s="0" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B69" s="0" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B70" s="0" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="B76" s="0" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A78" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A79" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A80" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B80" s="0" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A81" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B81" s="0" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A82" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B82" s="0" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A83" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A84" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A85" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A86" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A87" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A88" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A89" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B89" s="0" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A90" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B90" s="0" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A91" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B91" s="0" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A92" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B92" s="0" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A93" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B93" s="0" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A94" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B94" s="0" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A95" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B95" s="0" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A96" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A97" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B97" s="0" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A98" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A99" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B99" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A100" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B100" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A101" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B101" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A102" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B102" s="0" t="s">
         <v>122</v>
       </c>
-      <c r="B45" s="0" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="0" t="s">
+    </row>
+    <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A103" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B103" s="0" t="s">
         <v>123</v>
       </c>
-      <c r="B46" s="0" t="s">
+    </row>
+    <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A104" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B104" s="0" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="0" t="s">
+    <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A105" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B105" s="0" t="s">
         <v>125</v>
       </c>
-      <c r="B47" s="0" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="0" t="s">
+    </row>
+    <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A106" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B106" s="0" t="s">
         <v>126</v>
       </c>
-      <c r="B48" s="0" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="0" t="s">
+    </row>
+    <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A107" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A108" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A109" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B109" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A110" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B110" s="0" t="s">
         <v>127</v>
       </c>
-      <c r="B49" s="0" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="0" t="s">
+    </row>
+    <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A111" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B111" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A112" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B112" s="0" t="s">
         <v>128</v>
       </c>
-      <c r="B50" s="0" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="0" t="s">
+    </row>
+    <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A113" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B113" s="0" t="s">
         <v>129</v>
       </c>
-      <c r="B51" s="0" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="0" t="s">
+    </row>
+    <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A114" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B114" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A115" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B115" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A116" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B116" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A117" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B117" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A118" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B118" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="119" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A119" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B119" s="0" t="s">
         <v>130</v>
       </c>
-      <c r="B52" s="0" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="0" t="s">
+    </row>
+    <row r="120" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A120" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B120" s="0" t="s">
         <v>131</v>
       </c>
-      <c r="B53" s="0" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="0" t="s">
+    </row>
+    <row r="121" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A121" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B121" s="0" t="s">
         <v>132</v>
       </c>
-      <c r="B54" s="0" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="0" t="s">
+    </row>
+    <row r="122" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A122" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B122" s="0" t="s">
         <v>133</v>
       </c>
-      <c r="B55" s="0" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="0" t="s">
+    </row>
+    <row r="123" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A123" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B123" s="0" t="s">
         <v>134</v>
       </c>
-      <c r="B56" s="0" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="0" t="s">
+    </row>
+    <row r="124" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A124" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B124" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="125" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A125" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B125" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="126" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A126" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B126" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="127" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A127" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B127" s="0" t="s">
         <v>135</v>
       </c>
-      <c r="B57" s="0" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="0" t="s">
+    </row>
+    <row r="128" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A128" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B128" s="0" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="129" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A129" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B129" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C129" s="0" t="s">
         <v>136</v>
       </c>
-      <c r="B58" s="0" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="0" t="s">
+    </row>
+    <row r="130" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A130" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B130" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="131" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A131" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B131" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="132" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A132" s="0" t="s">
         <v>137</v>
       </c>
-      <c r="B59" s="0" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="0" t="s">
+      <c r="B132" s="0" t="s">
         <v>138</v>
       </c>
-      <c r="B60" s="0" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="0" t="s">
+    </row>
+    <row r="133" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A133" s="0" t="s">
+        <v>137</v>
+      </c>
+      <c r="B133" s="0" t="s">
         <v>139</v>
       </c>
-      <c r="B61" s="0" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="0" t="s">
+    </row>
+    <row r="134" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A134" s="0" t="s">
+        <v>137</v>
+      </c>
+      <c r="B134" s="0" t="s">
         <v>140</v>
       </c>
-      <c r="B62" s="0" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="0" t="s">
+    </row>
+    <row r="135" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A135" s="0" t="s">
+        <v>137</v>
+      </c>
+      <c r="B135" s="0" t="s">
         <v>141</v>
       </c>
-      <c r="B63" s="0" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="0" t="s">
+    </row>
+    <row r="136" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A136" s="0" t="s">
+        <v>137</v>
+      </c>
+      <c r="B136" s="0" t="s">
         <v>142</v>
       </c>
-      <c r="B64" s="0" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="0" t="s">
+    </row>
+    <row r="137" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A137" s="0" t="s">
+        <v>137</v>
+      </c>
+      <c r="B137" s="0" t="s">
         <v>143</v>
       </c>
-      <c r="B65" s="0" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="0" t="s">
+    </row>
+    <row r="138" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A138" s="0" t="s">
+        <v>137</v>
+      </c>
+      <c r="B138" s="0" t="s">
         <v>144</v>
       </c>
-      <c r="B66" s="0" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="0" t="s">
+    </row>
+    <row r="139" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A139" s="0" t="s">
+        <v>137</v>
+      </c>
+      <c r="B139" s="0" t="s">
         <v>145</v>
       </c>
-      <c r="B67" s="0" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="0" t="s">
+    </row>
+    <row r="140" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A140" s="0" t="s">
+        <v>137</v>
+      </c>
+      <c r="B140" s="0" t="s">
         <v>146</v>
       </c>
-      <c r="B68" s="0" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="0" t="s">
+    </row>
+    <row r="141" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A141" s="0" t="s">
         <v>147</v>
       </c>
-      <c r="B69" s="0" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="0" t="s">
+      <c r="B141" s="0" t="s">
         <v>148</v>
       </c>
-      <c r="B70" s="0" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="0" t="s">
+    </row>
+    <row r="142" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A142" s="0" t="s">
         <v>149</v>
       </c>
-      <c r="B71" s="0" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="0" t="s">
+      <c r="B142" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="B72" s="0" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="0" t="s">
+    </row>
+    <row r="143" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A143" s="0" t="s">
+        <v>149</v>
+      </c>
+      <c r="B143" s="0" t="s">
         <v>151</v>
       </c>
-      <c r="B73" s="0" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="0" t="s">
+    </row>
+    <row r="144" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A144" s="0" t="s">
+        <v>149</v>
+      </c>
+      <c r="B144" s="0" t="s">
         <v>152</v>
       </c>
-      <c r="B74" s="0" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="0" t="s">
+    </row>
+    <row r="145" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A145" s="0" t="s">
+        <v>149</v>
+      </c>
+      <c r="B145" s="0" t="s">
         <v>153</v>
       </c>
-      <c r="B75" s="0" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="0" t="s">
+    </row>
+    <row r="146" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A146" s="0" t="s">
+        <v>149</v>
+      </c>
+      <c r="B146" s="0" t="s">
         <v>154</v>
       </c>
-      <c r="B76" s="0" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="0" t="s">
+    </row>
+    <row r="147" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A147" s="0" t="s">
+        <v>149</v>
+      </c>
+      <c r="B147" s="0" t="s">
         <v>155</v>
       </c>
-      <c r="B77" s="0" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="0" t="s">
+    </row>
+    <row r="148" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A148" s="0" t="s">
         <v>156</v>
       </c>
-      <c r="B78" s="0" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="0" t="s">
+      <c r="B148" s="0" t="s">
         <v>157</v>
       </c>
-      <c r="B79" s="0" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="0" t="s">
+    </row>
+    <row r="149" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A149" s="0" t="s">
+        <v>156</v>
+      </c>
+      <c r="B149" s="0" t="s">
         <v>158</v>
       </c>
-      <c r="B80" s="0" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="0" t="s">
+    </row>
+    <row r="150" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A150" s="0" t="s">
+        <v>156</v>
+      </c>
+      <c r="B150" s="0" t="s">
         <v>159</v>
       </c>
-      <c r="B81" s="0" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="0" t="s">
+    </row>
+    <row r="151" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A151" s="0" t="s">
+        <v>156</v>
+      </c>
+      <c r="B151" s="0" t="s">
         <v>160</v>
       </c>
-      <c r="B82" s="0" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="0" t="s">
+    </row>
+    <row r="152" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A152" s="0" t="s">
+        <v>156</v>
+      </c>
+      <c r="B152" s="0" t="s">
         <v>161</v>
       </c>
-      <c r="B83" s="0" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="0" t="s">
+    </row>
+    <row r="153" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A153" s="0" t="s">
+        <v>156</v>
+      </c>
+      <c r="B153" s="0" t="s">
         <v>162</v>
       </c>
-      <c r="B84" s="0" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="0" t="s">
+    </row>
+    <row r="154" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A154" s="0" t="s">
+        <v>156</v>
+      </c>
+      <c r="B154" s="0" t="s">
         <v>163</v>
       </c>
-      <c r="B85" s="0" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="0" t="s">
+    </row>
+    <row r="155" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A155" s="0" t="s">
+        <v>156</v>
+      </c>
+      <c r="B155" s="0" t="s">
         <v>164</v>
       </c>
-      <c r="B86" s="0" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="0" t="s">
+    </row>
+    <row r="156" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A156" s="0" t="s">
+        <v>156</v>
+      </c>
+      <c r="B156" s="0" t="s">
         <v>165</v>
       </c>
-      <c r="B87" s="0" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="0" t="s">
-        <v>166</v>
-      </c>
-      <c r="B88" s="0" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="0" t="s">
-        <v>167</v>
-      </c>
-      <c r="B89" s="0" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="0" t="s">
-        <v>168</v>
-      </c>
-      <c r="B90" s="0" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="0" t="s">
-        <v>169</v>
-      </c>
-      <c r="B91" s="0" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A92" s="0" t="s">
-        <v>170</v>
-      </c>
-      <c r="B92" s="0" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A93" s="0" t="s">
-        <v>171</v>
-      </c>
-      <c r="B93" s="0" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A94" s="0" t="s">
-        <v>172</v>
-      </c>
-      <c r="B94" s="0" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A95" s="0" t="s">
-        <v>173</v>
-      </c>
-      <c r="B95" s="0" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A96" s="0" t="s">
-        <v>174</v>
-      </c>
-      <c r="B96" s="0" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A97" s="0" t="s">
-        <v>175</v>
-      </c>
-      <c r="B97" s="0" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A98" s="0" t="s">
-        <v>176</v>
-      </c>
-      <c r="B98" s="0" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A99" s="0" t="s">
-        <v>177</v>
-      </c>
-      <c r="B99" s="0" t="s">
-        <v>124</v>
-      </c>
-    </row>
+    </row>
+    <row r="157" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="158" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="215" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -3110,290 +3593,805 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B36"/>
+  <dimension ref="A2:B99"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.34375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="2" width="33.26"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="54.58"/>
-  </cols>
+  <sheetFormatPr defaultColWidth="11.28515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="2" t="s">
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="0" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="2" t="s">
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>166</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>168</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>169</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>170</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>171</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>172</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
+        <v>173</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="s">
+        <v>174</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="s">
+        <v>175</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="s">
+        <v>176</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="s">
+        <v>177</v>
+      </c>
+      <c r="B13" s="0" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="s">
+      <c r="B14" s="0" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="s">
         <v>179</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B15" s="0" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="2" t="s">
+      <c r="B16" s="0" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="s">
         <v>181</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B17" s="0" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="2" t="s">
+      <c r="B18" s="0" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="s">
         <v>183</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B19" s="0" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="2" t="s">
+      <c r="B20" s="0" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="s">
         <v>185</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B21" s="0" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="2" t="s">
+      <c r="B22" s="0" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0" t="s">
         <v>187</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B23" s="0" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="0" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="2" t="s">
+      <c r="B24" s="0" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="0" t="s">
         <v>189</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B25" s="0" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="0" t="s">
         <v>190</v>
       </c>
-    </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="2" t="s">
+      <c r="B26" s="0" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="0" t="s">
         <v>191</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B27" s="0" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="0" t="s">
         <v>192</v>
       </c>
-    </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="2" t="s">
+      <c r="B28" s="0" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="0" t="s">
         <v>193</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B29" s="0" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="0" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="2" t="s">
+      <c r="B30" s="0" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="0" t="s">
         <v>195</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B31" s="0" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="0" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="2" t="s">
+      <c r="B32" s="0" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="0" t="s">
         <v>197</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B33" s="0" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="0" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="2" t="s">
+      <c r="B34" s="0" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="0" t="s">
         <v>199</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B35" s="0" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="0" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="2" t="s">
+      <c r="B36" s="0" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="0" t="s">
         <v>201</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B37" s="0" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="0" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="2" t="s">
+      <c r="B38" s="0" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="0" t="s">
         <v>203</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B39" s="0" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="0" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="2" t="s">
+      <c r="B40" s="0" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="0" t="s">
         <v>205</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B41" s="0" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="0" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="2" t="s">
+      <c r="B42" s="0" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="0" t="s">
         <v>207</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B43" s="0" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="0" t="s">
         <v>208</v>
       </c>
-    </row>
-    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="2" t="s">
+      <c r="B44" s="0" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="0" t="s">
         <v>209</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B45" s="0" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="0" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="2" t="s">
+      <c r="B46" s="0" t="s">
         <v>211</v>
       </c>
-      <c r="B18" s="2" t="s">
+    </row>
+    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="0" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="2" t="s">
+      <c r="B47" s="0" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="0" t="s">
         <v>213</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="B48" s="0" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="0" t="s">
         <v>214</v>
       </c>
-    </row>
-    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="2" t="s">
+      <c r="B49" s="0" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="0" t="s">
         <v>215</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="B50" s="0" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="0" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="2" t="s">
+      <c r="B51" s="0" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="0" t="s">
         <v>217</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="B52" s="0" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="0" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="B22" s="2" t="s">
+      <c r="B53" s="0" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="0" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="2" t="s">
+      <c r="B54" s="0" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="0" t="s">
         <v>220</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="B55" s="0" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="0" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="2" t="s">
+      <c r="B56" s="0" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="0" t="s">
         <v>222</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="B57" s="0" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="0" t="s">
         <v>223</v>
       </c>
-    </row>
-    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="2" t="s">
+      <c r="B58" s="0" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="0" t="s">
         <v>224</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="B59" s="0" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="0" t="s">
         <v>225</v>
       </c>
-    </row>
-    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="2" t="s">
+      <c r="B60" s="0" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="0" t="s">
         <v>226</v>
       </c>
-      <c r="B26" s="2" t="s">
+      <c r="B61" s="0" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="0" t="s">
         <v>227</v>
       </c>
-    </row>
-    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="2" t="s">
+      <c r="B62" s="0" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="0" t="s">
         <v>228</v>
       </c>
-      <c r="B27" s="2" t="s">
+      <c r="B63" s="0" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="0" t="s">
         <v>229</v>
       </c>
-    </row>
-    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="B28" s="2" t="s">
+      <c r="B64" s="0" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="0" t="s">
         <v>230</v>
       </c>
-    </row>
-    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="B29" s="2" t="s">
+      <c r="B65" s="0" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="0" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="B30" s="2" t="s">
+      <c r="B66" s="0" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="0" t="s">
         <v>232</v>
       </c>
-    </row>
-    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="2" t="s">
+      <c r="B67" s="0" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="0" t="s">
         <v>233</v>
       </c>
-      <c r="B31" s="2" t="s">
+      <c r="B68" s="0" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="0" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="B32" s="2" t="s">
+      <c r="B69" s="0" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="0" t="s">
         <v>235</v>
       </c>
-    </row>
-    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="2" t="s">
+      <c r="B70" s="0" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="0" t="s">
         <v>236</v>
       </c>
-      <c r="B33" s="2" t="s">
+      <c r="B71" s="0" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="0" t="s">
         <v>237</v>
       </c>
-    </row>
-    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+      <c r="B72" s="0" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="0" t="s">
+        <v>238</v>
+      </c>
+      <c r="B73" s="0" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="0" t="s">
+        <v>239</v>
+      </c>
+      <c r="B74" s="0" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="0" t="s">
+        <v>240</v>
+      </c>
+      <c r="B75" s="0" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="0" t="s">
+        <v>241</v>
+      </c>
+      <c r="B76" s="0" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="0" t="s">
+        <v>242</v>
+      </c>
+      <c r="B77" s="0" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A78" s="0" t="s">
+        <v>243</v>
+      </c>
+      <c r="B78" s="0" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A79" s="0" t="s">
+        <v>244</v>
+      </c>
+      <c r="B79" s="0" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A80" s="0" t="s">
+        <v>245</v>
+      </c>
+      <c r="B80" s="0" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A81" s="0" t="s">
+        <v>246</v>
+      </c>
+      <c r="B81" s="0" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A82" s="0" t="s">
+        <v>247</v>
+      </c>
+      <c r="B82" s="0" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A83" s="0" t="s">
+        <v>248</v>
+      </c>
+      <c r="B83" s="0" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A84" s="0" t="s">
+        <v>249</v>
+      </c>
+      <c r="B84" s="0" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A85" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="B85" s="0" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A86" s="0" t="s">
+        <v>251</v>
+      </c>
+      <c r="B86" s="0" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A87" s="0" t="s">
+        <v>252</v>
+      </c>
+      <c r="B87" s="0" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A88" s="0" t="s">
+        <v>253</v>
+      </c>
+      <c r="B88" s="0" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A89" s="0" t="s">
+        <v>254</v>
+      </c>
+      <c r="B89" s="0" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A90" s="0" t="s">
+        <v>255</v>
+      </c>
+      <c r="B90" s="0" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A91" s="0" t="s">
+        <v>256</v>
+      </c>
+      <c r="B91" s="0" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A92" s="0" t="s">
+        <v>257</v>
+      </c>
+      <c r="B92" s="0" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A93" s="0" t="s">
+        <v>258</v>
+      </c>
+      <c r="B93" s="0" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A94" s="0" t="s">
+        <v>259</v>
+      </c>
+      <c r="B94" s="0" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A95" s="0" t="s">
+        <v>260</v>
+      </c>
+      <c r="B95" s="0" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A96" s="0" t="s">
+        <v>261</v>
+      </c>
+      <c r="B96" s="0" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A97" s="0" t="s">
+        <v>262</v>
+      </c>
+      <c r="B97" s="0" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A98" s="0" t="s">
+        <v>263</v>
+      </c>
+      <c r="B98" s="0" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A99" s="0" t="s">
+        <v>264</v>
+      </c>
+      <c r="B99" s="0" t="s">
+        <v>211</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;12&amp;Kffffff&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;12&amp;KffffffPage &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
@@ -3403,1288 +4401,290 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C215"/>
+  <dimension ref="A1:B36"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.01171875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.71875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="13.48"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="9.49"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="2" width="34.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="56.63"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
+      <c r="B1" s="2" t="s">
+        <v>265</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="B2" s="0" t="s">
-        <v>239</v>
+      <c r="A2" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>267</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>2</v>
+      <c r="A3" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>269</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>240</v>
+      <c r="A4" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>271</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="B5" s="0" t="s">
-        <v>241</v>
+      <c r="A5" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>273</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>38</v>
+      <c r="A6" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>275</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>5</v>
+      <c r="A7" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>277</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="B8" s="0" t="s">
-        <v>242</v>
+      <c r="A8" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>279</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="B9" s="0" t="s">
-        <v>239</v>
+      <c r="A9" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>281</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>2</v>
+      <c r="A10" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>283</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>240</v>
+      <c r="A11" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>285</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="B12" s="0" t="s">
-        <v>241</v>
+      <c r="A12" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>287</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>38</v>
+      <c r="A13" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>289</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>5</v>
+      <c r="A14" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>291</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>244</v>
+      <c r="A15" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>293</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="B16" s="0" t="s">
-        <v>245</v>
+      <c r="A16" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>295</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="B17" s="0" t="s">
-        <v>239</v>
+      <c r="A17" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>297</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>2</v>
+      <c r="A18" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>299</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>240</v>
+      <c r="A19" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>301</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>40</v>
+      <c r="A20" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>303</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="B22" s="0" t="s">
-        <v>43</v>
+      <c r="A21" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>306</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="B23" s="0" t="s">
-        <v>242</v>
+      <c r="A23" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>308</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="B24" s="0" t="s">
-        <v>239</v>
+      <c r="A24" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>310</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>2</v>
+      <c r="A25" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>312</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>240</v>
+      <c r="A26" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>314</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="B29" s="0" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="B30" s="0" t="s">
-        <v>244</v>
+      <c r="A27" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>319</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="B31" s="0" t="s">
-        <v>245</v>
+      <c r="A31" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>321</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="B32" s="0" t="s">
-        <v>239</v>
-      </c>
-      <c r="C32" s="1"/>
+      <c r="A32" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>322</v>
+      </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="B33" s="0" t="s">
-        <v>2</v>
-      </c>
-      <c r="C33" s="1"/>
-    </row>
-    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="B34" s="0" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="B35" s="0" t="s">
-        <v>2</v>
-      </c>
-      <c r="C35" s="1"/>
-    </row>
-    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="C36" s="1"/>
-    </row>
-    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="C37" s="1"/>
-    </row>
-    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C38" s="1"/>
-    </row>
-    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="B39" s="0" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="B41" s="0" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="B42" s="0" t="s">
-        <v>255</v>
-      </c>
-      <c r="C42" s="1"/>
-    </row>
-    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="B43" s="0" t="s">
-        <v>256</v>
-      </c>
-      <c r="C43" s="1"/>
-    </row>
-    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="B44" s="0" t="s">
-        <v>239</v>
-      </c>
-      <c r="C44" s="1"/>
-    </row>
-    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="B45" s="0" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="B46" s="0" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="B47" s="0" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="B48" s="0" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="B49" s="0" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B50" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B51" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B52" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B53" s="1" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B54" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="B55" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="B56" s="2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="B57" s="0" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="B58" s="0" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="B59" s="0" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="B60" s="0" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="B61" s="0" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="B62" s="0" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B63" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B64" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B65" s="0" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B66" s="0" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B67" s="0" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B68" s="0" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B69" s="0" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B70" s="0" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="B71" s="2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="B72" s="2" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="B73" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="B74" s="1" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="B75" s="1" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="B76" s="0" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="B77" s="2" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="B78" s="2" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="B79" s="2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="B80" s="0" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="B81" s="0" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="B82" s="0" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B83" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B84" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B85" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B86" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B87" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B88" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B89" s="0" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B90" s="0" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B91" s="0" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A92" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B92" s="0" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A93" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B93" s="0" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A94" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B94" s="0" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A95" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B95" s="0" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A96" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B96" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A97" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B97" s="0" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A98" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B98" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A99" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B99" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A100" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B100" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A101" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B101" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A102" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B102" s="0" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A103" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B103" s="0" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A104" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B104" s="0" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A105" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B105" s="0" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A106" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B106" s="0" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A107" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B107" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A108" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B108" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A109" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B109" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A110" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B110" s="0" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A111" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B111" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A112" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B112" s="0" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A113" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B113" s="0" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A114" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B114" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A115" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B115" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A116" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B116" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A117" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B117" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A118" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B118" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="119" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A119" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B119" s="0" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="120" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A120" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B120" s="0" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="121" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A121" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B121" s="0" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="122" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A122" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B122" s="0" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="123" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A123" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="B123" s="0" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="124" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A124" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="B124" s="2" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="125" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A125" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="B125" s="2" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="126" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A126" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="B126" s="2" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="127" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A127" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="B127" s="0" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="128" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A128" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="B128" s="0" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="129" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A129" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="B129" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="C129" s="0" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="130" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A130" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="B130" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="131" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A131" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="B131" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="132" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A132" s="0" t="s">
-        <v>296</v>
-      </c>
-      <c r="B132" s="0" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="133" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A133" s="0" t="s">
-        <v>296</v>
-      </c>
-      <c r="B133" s="0" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="134" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A134" s="0" t="s">
-        <v>296</v>
-      </c>
-      <c r="B134" s="0" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="135" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A135" s="0" t="s">
-        <v>296</v>
-      </c>
-      <c r="B135" s="0" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="136" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A136" s="0" t="s">
-        <v>296</v>
-      </c>
-      <c r="B136" s="0" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="137" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A137" s="0" t="s">
-        <v>296</v>
-      </c>
-      <c r="B137" s="0" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="138" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A138" s="0" t="s">
-        <v>296</v>
-      </c>
-      <c r="B138" s="0" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="139" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A139" s="0" t="s">
-        <v>296</v>
-      </c>
-      <c r="B139" s="0" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="140" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A140" s="0" t="s">
-        <v>296</v>
-      </c>
-      <c r="B140" s="0" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="141" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A141" s="0" t="s">
-        <v>306</v>
-      </c>
-      <c r="B141" s="0" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="142" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A142" s="0" t="s">
-        <v>308</v>
-      </c>
-      <c r="B142" s="2" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="143" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A143" s="0" t="s">
-        <v>308</v>
-      </c>
-      <c r="B143" s="0" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="144" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A144" s="0" t="s">
-        <v>308</v>
-      </c>
-      <c r="B144" s="0" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="145" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A145" s="0" t="s">
-        <v>308</v>
-      </c>
-      <c r="B145" s="0" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="146" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A146" s="0" t="s">
-        <v>308</v>
-      </c>
-      <c r="B146" s="0" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="147" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A147" s="0" t="s">
-        <v>308</v>
-      </c>
-      <c r="B147" s="0" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="148" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A148" s="0" t="s">
-        <v>315</v>
-      </c>
-      <c r="B148" s="0" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="149" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A149" s="0" t="s">
-        <v>315</v>
-      </c>
-      <c r="B149" s="0" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="150" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A150" s="0" t="s">
-        <v>315</v>
-      </c>
-      <c r="B150" s="0" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="151" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A151" s="0" t="s">
-        <v>315</v>
-      </c>
-      <c r="B151" s="0" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="152" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A152" s="0" t="s">
-        <v>315</v>
-      </c>
-      <c r="B152" s="0" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="153" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A153" s="0" t="s">
-        <v>315</v>
-      </c>
-      <c r="B153" s="0" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="154" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A154" s="0" t="s">
-        <v>315</v>
-      </c>
-      <c r="B154" s="0" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="155" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A155" s="0" t="s">
-        <v>315</v>
-      </c>
-      <c r="B155" s="0" t="s">
+      <c r="A33" s="2" t="s">
         <v>323</v>
       </c>
-    </row>
-    <row r="156" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A156" s="0" t="s">
-        <v>315</v>
-      </c>
-      <c r="B156" s="0" t="s">
+      <c r="B33" s="2" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="157" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="158" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="215" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;12&amp;Kffffff&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;12&amp;KffffffPage &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
@@ -4700,10 +4700,10 @@
       <selection pane="topLeft" activeCell="A40" activeCellId="0" sqref="A40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.34375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.71875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.18"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="10.93"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.6"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="11.33"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4786,7 +4786,7 @@
         <v>334</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>267</v>
+        <v>108</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4810,7 +4810,7 @@
         <v>334</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>266</v>
+        <v>107</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4842,7 +4842,7 @@
         <v>325</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>258</v>
+        <v>99</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4866,7 +4866,7 @@
         <v>342</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>242</v>
+        <v>83</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5074,7 +5074,7 @@
         <v>48</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>260</v>
+        <v>101</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5122,7 +5122,7 @@
         <v>30</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>288</v>
+        <v>129</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5146,7 +5146,7 @@
         <v>362</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>277</v>
+        <v>118</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5210,7 +5210,7 @@
         <v>37</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>241</v>
+        <v>82</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5258,7 +5258,7 @@
         <v>42</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>258</v>
+        <v>99</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5274,7 +5274,7 @@
         <v>374</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>252</v>
+        <v>93</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5298,7 +5298,7 @@
         <v>374</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>253</v>
+        <v>94</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5314,7 +5314,7 @@
         <v>377</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>256</v>
+        <v>97</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5327,15 +5327,15 @@
     </row>
     <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="2" t="s">
-        <v>248</v>
+        <v>89</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>249</v>
+        <v>90</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="2" t="s">
-        <v>248</v>
+        <v>89</v>
       </c>
       <c r="B79" s="2" t="s">
         <v>379</v>
@@ -5378,19 +5378,19 @@
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="0" t="s">
-        <v>308</v>
+        <v>149</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>309</v>
+        <v>150</v>
       </c>
       <c r="C84" s="0" t="s">
-        <v>312</v>
+        <v>153</v>
       </c>
       <c r="D84" s="0" t="s">
-        <v>311</v>
+        <v>152</v>
       </c>
       <c r="E84" s="0" t="s">
-        <v>313</v>
+        <v>154</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5406,7 +5406,7 @@
         <v>386</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>289</v>
+        <v>130</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5448,10 +5448,10 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.34375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.71875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="10.63"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="48.62"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="11.03"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="50.44"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
